--- a/public/assets/media/excel/excel-download.xlsx
+++ b/public/assets/media/excel/excel-download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\duan-poly\api-student-capacity\public\assets\media\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C8590F-4B12-48DC-B24C-FE04B2082620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B1EC06-C236-47B4-9352-4FB87B7BBE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,33 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C84D8568-C754-42B8-AA6F-D69A0FD78CB2}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5773A993-35AB-42D3-98AB-9A1DE7F27193}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"Một đáp án"
+"Nhiều đáp án"
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9C26020C-B258-440B-84D4-D15E01C0B4D5}">
       <text>
         <r>
           <rPr>
@@ -55,7 +81,34 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+Chỉ nhận người nhập "Đáp án đúng"
+Cảnh báo nhập sai hệ thống sẽ nhận là đáp án sai</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EE126DF7-AFB8-4105-BDCF-C40338FA0BBF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+"Dễ"
+"Trung bình"
+"Khó"</t>
         </r>
       </text>
     </comment>
@@ -64,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -81,12 +134,6 @@
     <t>Đáp án đúng</t>
   </si>
   <si>
-    <t>Câu hỏi by excel 1</t>
-  </si>
-  <si>
-    <t>Câu hỏi by excel 2</t>
-  </si>
-  <si>
     <t>Con gà</t>
   </si>
   <si>
@@ -111,38 +158,68 @@
     <t>Giun</t>
   </si>
   <si>
-    <t>1,2,3,4,15</t>
-  </si>
-  <si>
-    <t>Mức độ (0 : Dễ , 1 :  Trung bình , 2 : Khó )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thể loại câu hỏi (1 : nhiều đáp án , 0: một đáp án ) </t>
+    <t>Cá voi</t>
+  </si>
+  <si>
+    <t>Một đáp án</t>
+  </si>
+  <si>
+    <t>Nhiều đáp án</t>
+  </si>
+  <si>
+    <t>Dễ</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>Câu hỏi by excel 8</t>
+  </si>
+  <si>
+    <t>Câu hỏi by excel 9</t>
+  </si>
+  <si>
+    <t>Câu hỏi by excel 10</t>
+  </si>
+  <si>
+    <t>Đại bàng</t>
+  </si>
+  <si>
+    <t>Thể loại câu hỏi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mức độ </t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -157,23 +234,28 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,20 +267,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A77C9AA0-5547-4EAC-B41E-73EA09509532}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -500,161 +587,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="21">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="12" spans="1:12">
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <dataConsolidate/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A18" xr:uid="{85164911-4EAC-4943-AE71-BF27AD6FF322}">
+      <formula1>"Một đáp án,Nhiều đáp án"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D198" xr:uid="{9F3D142E-7F65-4A9F-B137-6914540F61D4}">
+      <formula1>"Đáp án đúng"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F53" xr:uid="{9BCE8E96-6CC0-4B3B-B787-63D68448C58D}">
+      <formula1>"Dễ,Trung bình,Khó"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9" xr:uid="{31D8A5D7-9C36-4321-B653-A27B6A74B5EA}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>